--- a/data_input/CR/CRR_July2023.xlsx
+++ b/data_input/CR/CRR_July2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cherdchai\CRR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\data_input\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2785C4F8-C9C3-4214-A0CE-11D6D0C3A4F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D675D76A-C000-46BE-A40B-2513DF8F750D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="675" windowWidth="13425" windowHeight="14850" tabRatio="601" firstSheet="4" activeTab="5" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="5" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
   </bookViews>
   <sheets>
     <sheet name="M &amp; L Infrastructure" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="353">
   <si>
     <t>บุคคล/นิติบุคคลที่ถูกประเมิน</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">ระยะเวลาดำเนินการตั้งแต่ 5 ปี ไม่เกิน 7 ปี มีกำรต่อเนื่อง 3 ปีล่าสุด </t>
-  </si>
-  <si>
-    <t>วัตุประสงค์</t>
   </si>
   <si>
     <t>No. of years with
@@ -1409,7 +1406,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{8532E6A2-F8A3-4C00-AE1D-8DCC7F8D8CCD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{B3D3272A-B957-4B88-BE6E-AE5CF0BBFE0B}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{898B3CEF-3154-43B2-AE62-58D7A7079875}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7B3DE736-EE73-4AE3-BCC1-03DE1F6C73ED}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{478D0479-31EA-4311-A923-0EBD64B74014}" name="สถานะชั้นหนี้"/>
@@ -1447,7 +1444,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{E100862C-4AB8-40DE-B450-68DB6E98C1BD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{AF80F883-3D02-466B-B255-2439432DB180}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{F38715C8-40A5-4541-B839-DF0D89A57684}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{9FD21875-4705-42B5-B815-6D0442CED130}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{2CA8375E-66B8-4A59-82E2-6199EEEE5F91}" name="สถานะชั้นหนี้"/>
@@ -1485,7 +1482,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{0D7A27F9-CEA4-4C98-9A8F-A4172FEE71FE}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{BFD1DE10-7903-415F-BFDF-CD08DAFB580A}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{7328C905-B294-4E1B-947E-98D969D015BB}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7CED7E18-7245-4671-A51C-410A9C3E232A}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{FE3041EF-D804-45ED-9C10-BB7A9BE50366}" name="สถานะชั้นหนี้"/>
@@ -2365,7 +2362,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2">
         <v>750854232</v>
@@ -2374,7 +2371,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -2383,7 +2380,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="5">
         <v>243259</v>
@@ -2476,7 +2473,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -2488,7 +2485,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -2544,7 +2541,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -2597,7 +2594,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -2644,7 +2641,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -2682,7 +2679,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -2699,97 +2696,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2860,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6B51E-319C-4136-AB64-47F7F72E9146}">
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AX1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3014,7 +3011,7 @@
         <v>46</v>
       </c>
       <c r="AL2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM2" t="s">
         <v>48</v>
@@ -3064,7 +3061,7 @@
         <v>47</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM3" t="s">
         <v>49</v>
@@ -3111,7 +3108,7 @@
         <v>43</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM4" t="s">
         <v>50</v>
@@ -3152,7 +3149,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN5" t="s">
         <v>54</v>
@@ -3184,7 +3181,7 @@
         <v>45</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN6" t="s">
         <v>55</v>
@@ -3195,97 +3192,97 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3351,7 +3348,7 @@
   <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3409,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3445,43 +3442,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -3492,7 +3489,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" s="7">
         <v>750933946</v>
@@ -3501,7 +3498,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -3510,16 +3507,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -3534,31 +3531,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X2">
         <v>6.22</v>
@@ -3576,7 +3573,7 @@
         <v>137</v>
       </c>
       <c r="AC2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -3588,13 +3585,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -3609,31 +3606,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -3641,16 +3638,16 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -3659,16 +3656,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -3683,31 +3680,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3">
         <v>1.73</v>
@@ -3725,7 +3722,7 @@
         <v>139</v>
       </c>
       <c r="AC3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -3737,13 +3734,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -3758,31 +3755,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -3797,13 +3794,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -3818,31 +3815,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -3854,10 +3851,10 @@
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -3872,31 +3869,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -3908,34 +3905,34 @@
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -3944,102 +3941,102 @@
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H7" s="5"/>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H8" s="5"/>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H9" s="5"/>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4120,7 +4117,7 @@
   <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC27"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4180,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -4216,43 +4213,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -4263,16 +4260,16 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -4281,16 +4278,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>56</v>
@@ -4305,31 +4302,31 @@
         <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S2" t="s">
+        <v>184</v>
+      </c>
+      <c r="T2" t="s">
         <v>185</v>
       </c>
-      <c r="T2" t="s">
-        <v>186</v>
-      </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
         <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
       </c>
       <c r="X2">
         <v>2.38</v>
@@ -4347,7 +4344,7 @@
         <v>138</v>
       </c>
       <c r="AC2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -4359,13 +4356,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -4380,31 +4377,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -4412,16 +4409,16 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -4430,16 +4427,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -4454,31 +4451,31 @@
         <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
+        <v>197</v>
+      </c>
+      <c r="W3" t="s">
         <v>198</v>
-      </c>
-      <c r="W3" t="s">
-        <v>199</v>
       </c>
       <c r="X3">
         <v>1.47</v>
@@ -4496,7 +4493,7 @@
         <v>141</v>
       </c>
       <c r="AC3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -4508,13 +4505,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -4529,31 +4526,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -4561,13 +4558,13 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -4576,13 +4573,13 @@
         <v>46</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -4597,31 +4594,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
         <v>198</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
       </c>
       <c r="X4">
         <v>4.22</v>
@@ -4639,7 +4636,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -4648,13 +4645,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -4669,31 +4666,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -4701,7 +4698,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="8">
         <v>750449121</v>
@@ -4710,7 +4707,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -4719,16 +4716,16 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -4743,31 +4740,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" t="s">
         <v>198</v>
-      </c>
-      <c r="W5" t="s">
-        <v>199</v>
       </c>
       <c r="X5">
         <v>5.08</v>
@@ -4785,16 +4782,16 @@
         <v>139</v>
       </c>
       <c r="AC5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -4809,31 +4806,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -4841,7 +4838,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6">
         <v>480005155</v>
@@ -4850,7 +4847,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -4859,13 +4856,13 @@
         <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -4880,31 +4877,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" t="s">
         <v>198</v>
-      </c>
-      <c r="W6" t="s">
-        <v>199</v>
       </c>
       <c r="X6">
         <v>1.47</v>
@@ -4922,40 +4919,40 @@
         <v>140</v>
       </c>
       <c r="AC6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -4963,16 +4960,16 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -4981,13 +4978,13 @@
         <v>46</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I7" t="s">
         <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>56</v>
@@ -5002,31 +4999,31 @@
         <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
+        <v>197</v>
+      </c>
+      <c r="W7" t="s">
         <v>198</v>
-      </c>
-      <c r="W7" t="s">
-        <v>199</v>
       </c>
       <c r="X7">
         <v>1.46</v>
@@ -5044,24 +5041,24 @@
         <v>140</v>
       </c>
       <c r="AC7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -5076,7 +5073,7 @@
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -5091,31 +5088,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T8" t="s">
+        <v>187</v>
+      </c>
+      <c r="U8" t="s">
         <v>188</v>
       </c>
-      <c r="U8" t="s">
-        <v>189</v>
-      </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X8">
         <v>1.94</v>
@@ -5133,15 +5130,15 @@
         <v>137</v>
       </c>
       <c r="AC8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B9">
         <v>750329930</v>
@@ -5150,7 +5147,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -5159,13 +5156,13 @@
         <v>46</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I9" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -5180,31 +5177,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X9">
         <v>216.37</v>
@@ -5222,15 +5219,15 @@
         <v>141</v>
       </c>
       <c r="AC9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B10" s="8">
         <v>610002131</v>
@@ -5239,7 +5236,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -5248,16 +5245,16 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>57</v>
@@ -5272,31 +5269,31 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V10" t="s">
+        <v>197</v>
+      </c>
+      <c r="W10" t="s">
         <v>198</v>
-      </c>
-      <c r="W10" t="s">
-        <v>199</v>
       </c>
       <c r="X10">
         <v>21.39</v>
@@ -5314,21 +5311,21 @@
         <v>140</v>
       </c>
       <c r="AC10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -5343,7 +5340,7 @@
         <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>57</v>
@@ -5358,31 +5355,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V11" t="s">
+        <v>197</v>
+      </c>
+      <c r="W11" t="s">
         <v>198</v>
-      </c>
-      <c r="W11" t="s">
-        <v>199</v>
       </c>
       <c r="X11">
         <v>36.06</v>
@@ -5400,15 +5397,15 @@
         <v>140</v>
       </c>
       <c r="AC11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B12">
         <v>750962545</v>
@@ -5417,7 +5414,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -5432,7 +5429,7 @@
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
         <v>56</v>
@@ -5447,31 +5444,31 @@
         <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X12">
         <v>4.49</v>
@@ -5489,15 +5486,15 @@
         <v>138</v>
       </c>
       <c r="AC12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B13">
         <v>610012620</v>
@@ -5506,7 +5503,7 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -5515,13 +5512,13 @@
         <v>46</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I13" t="s">
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
         <v>57</v>
@@ -5536,31 +5533,31 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V13" t="s">
+        <v>197</v>
+      </c>
+      <c r="W13" t="s">
         <v>198</v>
-      </c>
-      <c r="W13" t="s">
-        <v>199</v>
       </c>
       <c r="X13">
         <v>2.5</v>
@@ -5578,15 +5575,15 @@
         <v>138</v>
       </c>
       <c r="AC13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14">
         <v>730015802</v>
@@ -5595,7 +5592,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -5604,13 +5601,13 @@
         <v>46</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I14" t="s">
         <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
@@ -5625,31 +5622,31 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T14" t="s">
+        <v>187</v>
+      </c>
+      <c r="U14" t="s">
         <v>188</v>
       </c>
-      <c r="U14" t="s">
-        <v>189</v>
-      </c>
       <c r="V14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X14">
         <v>40.58</v>
@@ -5667,15 +5664,15 @@
         <v>141</v>
       </c>
       <c r="AC14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B15">
         <v>750838432</v>
@@ -5684,7 +5681,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
@@ -5693,16 +5690,16 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I15" t="s">
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>57</v>
@@ -5717,31 +5714,31 @@
         <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -5759,15 +5756,15 @@
         <v>139</v>
       </c>
       <c r="AC15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B16">
         <v>730002157</v>
@@ -5776,7 +5773,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -5791,7 +5788,7 @@
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
         <v>57</v>
@@ -5806,31 +5803,31 @@
         <v>75</v>
       </c>
       <c r="O16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T16" t="s">
+        <v>187</v>
+      </c>
+      <c r="U16" t="s">
         <v>188</v>
       </c>
-      <c r="U16" t="s">
-        <v>189</v>
-      </c>
       <c r="V16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X16">
         <v>1.24</v>
@@ -5848,15 +5845,15 @@
         <v>138</v>
       </c>
       <c r="AC16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B17">
         <v>630001977</v>
@@ -5865,7 +5862,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -5880,7 +5877,7 @@
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>56</v>
@@ -5895,31 +5892,31 @@
         <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V17" t="s">
+        <v>197</v>
+      </c>
+      <c r="W17" t="s">
         <v>198</v>
-      </c>
-      <c r="W17" t="s">
-        <v>199</v>
       </c>
       <c r="X17">
         <v>6.08</v>
@@ -5937,15 +5934,15 @@
         <v>137</v>
       </c>
       <c r="AC17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B18">
         <v>530019674</v>
@@ -5954,7 +5951,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
@@ -5969,7 +5966,7 @@
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
         <v>57</v>
@@ -5984,31 +5981,31 @@
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X18">
         <v>2.4</v>
@@ -6026,24 +6023,24 @@
         <v>139</v>
       </c>
       <c r="AC18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" t="s">
         <v>310</v>
-      </c>
-      <c r="B19" t="s">
-        <v>311</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -6052,16 +6049,16 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I19" t="s">
         <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>57</v>
@@ -6076,31 +6073,31 @@
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V19" t="s">
         <v>72</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X19">
         <v>2</v>
@@ -6118,15 +6115,15 @@
         <v>137</v>
       </c>
       <c r="AC19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B20">
         <v>750709570</v>
@@ -6135,7 +6132,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E20" t="s">
         <v>43</v>
@@ -6144,16 +6141,16 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
         <v>57</v>
@@ -6168,31 +6165,31 @@
         <v>75</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X20">
         <v>2.75</v>
@@ -6210,15 +6207,15 @@
         <v>140</v>
       </c>
       <c r="AC20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B21">
         <v>750711720</v>
@@ -6227,7 +6224,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -6236,16 +6233,16 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I21" t="s">
         <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K21" t="s">
         <v>57</v>
@@ -6260,31 +6257,31 @@
         <v>77</v>
       </c>
       <c r="O21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S21" t="s">
+        <v>184</v>
+      </c>
+      <c r="T21" t="s">
         <v>185</v>
       </c>
-      <c r="T21" t="s">
-        <v>186</v>
-      </c>
       <c r="U21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X21">
         <v>1.1599999999999999</v>
@@ -6302,21 +6299,21 @@
         <v>139</v>
       </c>
       <c r="AC21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -6325,13 +6322,13 @@
         <v>46</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I22" t="s">
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
         <v>56</v>
@@ -6346,31 +6343,31 @@
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V22" t="s">
+        <v>197</v>
+      </c>
+      <c r="W22" t="s">
         <v>198</v>
-      </c>
-      <c r="W22" t="s">
-        <v>199</v>
       </c>
       <c r="X22">
         <v>7.1</v>
@@ -6388,15 +6385,15 @@
         <v>139</v>
       </c>
       <c r="AC22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B23">
         <v>750477679</v>
@@ -6405,7 +6402,7 @@
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -6414,16 +6411,16 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I23" t="s">
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s">
         <v>59</v>
@@ -6438,31 +6435,31 @@
         <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S23" t="s">
+        <v>184</v>
+      </c>
+      <c r="T23" t="s">
         <v>185</v>
       </c>
-      <c r="T23" t="s">
-        <v>186</v>
-      </c>
       <c r="U23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X23">
         <v>1.32</v>
@@ -6480,21 +6477,21 @@
         <v>137</v>
       </c>
       <c r="AC23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
@@ -6509,7 +6506,7 @@
         <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s">
         <v>57</v>
@@ -6524,31 +6521,31 @@
         <v>76</v>
       </c>
       <c r="O24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V24" t="s">
+        <v>197</v>
+      </c>
+      <c r="W24" t="s">
         <v>198</v>
-      </c>
-      <c r="W24" t="s">
-        <v>199</v>
       </c>
       <c r="X24">
         <v>2.97</v>
@@ -6566,21 +6563,21 @@
         <v>137</v>
       </c>
       <c r="AC24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
@@ -6589,13 +6586,13 @@
         <v>46</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I25" t="s">
         <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K25" t="s">
         <v>57</v>
@@ -6610,31 +6607,31 @@
         <v>77</v>
       </c>
       <c r="O25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X25">
         <v>1.43</v>
@@ -6652,24 +6649,24 @@
         <v>141</v>
       </c>
       <c r="AC25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>333</v>
+      </c>
+      <c r="B26" t="s">
         <v>334</v>
-      </c>
-      <c r="B26" t="s">
-        <v>335</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
@@ -6678,7 +6675,7 @@
         <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H26" s="5">
         <v>243440</v>
@@ -6687,7 +6684,7 @@
         <v>49</v>
       </c>
       <c r="J26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s">
         <v>57</v>
@@ -6702,31 +6699,31 @@
         <v>76</v>
       </c>
       <c r="O26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V26" t="s">
+        <v>197</v>
+      </c>
+      <c r="W26" t="s">
         <v>198</v>
-      </c>
-      <c r="W26" t="s">
-        <v>199</v>
       </c>
       <c r="X26">
         <v>2.96</v>
@@ -6744,21 +6741,21 @@
         <v>137</v>
       </c>
       <c r="AC26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E27" t="s">
         <v>45</v>
@@ -6773,7 +6770,7 @@
         <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s">
         <v>57</v>
@@ -6788,31 +6785,31 @@
         <v>76</v>
       </c>
       <c r="O27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V27" t="s">
+        <v>197</v>
+      </c>
+      <c r="W27" t="s">
         <v>198</v>
-      </c>
-      <c r="W27" t="s">
-        <v>199</v>
       </c>
       <c r="X27">
         <v>1.84</v>
@@ -6830,7 +6827,7 @@
         <v>138</v>
       </c>
       <c r="AC27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6911,8 +6908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F6DBC-97BA-4B0E-8A07-45C48EA2E8C7}">
   <dimension ref="A1:BD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6968,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7007,43 +7004,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -7054,7 +7051,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2">
         <v>750797944</v>
@@ -7063,7 +7060,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -7072,7 +7069,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="5">
         <v>243318</v>
@@ -7081,7 +7078,7 @@
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K2" t="s">
         <v>56</v>
@@ -7096,31 +7093,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X2">
         <v>5.67</v>
@@ -7138,7 +7135,7 @@
         <v>140</v>
       </c>
       <c r="AC2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -7150,13 +7147,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -7171,31 +7168,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -7203,7 +7200,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="8">
         <v>750068349</v>
@@ -7212,7 +7209,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -7221,16 +7218,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -7245,31 +7242,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3">
         <v>14.25</v>
@@ -7287,7 +7284,7 @@
         <v>138</v>
       </c>
       <c r="AC3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -7299,13 +7296,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -7320,31 +7317,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -7352,7 +7349,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4">
         <v>750912456</v>
@@ -7361,7 +7358,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -7370,7 +7367,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="5">
         <v>243411</v>
@@ -7379,7 +7376,7 @@
         <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -7394,31 +7391,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
         <v>198</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
       </c>
       <c r="X4">
         <v>2.48</v>
@@ -7436,7 +7433,7 @@
         <v>141</v>
       </c>
       <c r="AC4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -7445,13 +7442,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -7466,31 +7463,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -7498,13 +7495,13 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -7519,7 +7516,7 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -7534,31 +7531,31 @@
         <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" t="s">
         <v>198</v>
-      </c>
-      <c r="W5" t="s">
-        <v>199</v>
       </c>
       <c r="X5">
         <v>32.200000000000003</v>
@@ -7576,16 +7573,16 @@
         <v>141</v>
       </c>
       <c r="AC5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -7600,31 +7597,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -7632,7 +7629,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6">
         <v>750934460</v>
@@ -7641,7 +7638,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -7650,16 +7647,16 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -7674,31 +7671,31 @@
         <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V6" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" t="s">
         <v>198</v>
-      </c>
-      <c r="W6" t="s">
-        <v>199</v>
       </c>
       <c r="X6">
         <v>5</v>
@@ -7716,40 +7713,40 @@
         <v>141</v>
       </c>
       <c r="AC6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -7757,13 +7754,13 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -7778,7 +7775,7 @@
         <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -7793,31 +7790,31 @@
         <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V7" t="s">
+        <v>197</v>
+      </c>
+      <c r="W7" t="s">
         <v>198</v>
-      </c>
-      <c r="W7" t="s">
-        <v>199</v>
       </c>
       <c r="X7">
         <v>5</v>
@@ -7835,24 +7832,24 @@
         <v>141</v>
       </c>
       <c r="AC7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -7861,13 +7858,13 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -7882,31 +7879,31 @@
         <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V8" t="s">
+        <v>197</v>
+      </c>
+      <c r="W8" t="s">
         <v>198</v>
-      </c>
-      <c r="W8" t="s">
-        <v>199</v>
       </c>
       <c r="X8">
         <v>5</v>
@@ -7924,15 +7921,15 @@
         <v>140</v>
       </c>
       <c r="AC8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9">
         <v>750905989</v>
@@ -7941,7 +7938,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -7950,7 +7947,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H9" s="5">
         <v>243441</v>
@@ -7959,7 +7956,7 @@
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
@@ -7974,31 +7971,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X9">
         <v>2.19</v>
@@ -8016,15 +8013,15 @@
         <v>137</v>
       </c>
       <c r="AC9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B10">
         <v>670008692</v>
@@ -8033,7 +8030,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -8042,13 +8039,13 @@
         <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>57</v>
@@ -8063,31 +8060,31 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T10" t="s">
+        <v>187</v>
+      </c>
+      <c r="U10" t="s">
         <v>188</v>
       </c>
-      <c r="U10" t="s">
-        <v>189</v>
-      </c>
       <c r="V10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X10">
         <v>1.68</v>
@@ -8105,15 +8102,15 @@
         <v>138</v>
       </c>
       <c r="AC10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B11">
         <v>750037218</v>
@@ -8122,7 +8119,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -8131,16 +8128,16 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K11" t="s">
         <v>57</v>
@@ -8155,31 +8152,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X11">
         <v>3.32</v>
@@ -8197,15 +8194,15 @@
         <v>139</v>
       </c>
       <c r="AC11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B12">
         <v>730013483</v>
@@ -8214,7 +8211,7 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -8223,16 +8220,16 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K12" t="s">
         <v>56</v>
@@ -8247,31 +8244,31 @@
         <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -8289,81 +8286,81 @@
         <v>141</v>
       </c>
       <c r="AC12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="H13" s="5"/>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H14" s="5"/>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H15" s="5"/>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H16" s="5"/>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H17" s="5"/>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -8631,7 +8628,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -8687,7 +8684,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -8740,7 +8737,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -8787,7 +8784,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -8825,7 +8822,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -8842,97 +8839,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9182,7 +9179,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2">
         <v>750934769</v>
@@ -9191,7 +9188,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -9200,7 +9197,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" s="5">
         <v>243592</v>
@@ -9293,7 +9290,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -9305,7 +9302,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -9361,7 +9358,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -9414,7 +9411,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -9461,7 +9458,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -9499,7 +9496,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -9516,97 +9513,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9856,13 +9853,13 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -9871,7 +9868,7 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -9961,7 +9958,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -9973,7 +9970,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10020,7 +10017,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3">
         <v>620003353</v>
@@ -10029,7 +10026,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -10038,10 +10035,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
@@ -10131,7 +10128,7 @@
         <v>137</v>
       </c>
       <c r="AL3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -10143,7 +10140,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -10196,7 +10193,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -10243,7 +10240,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -10281,7 +10278,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -10298,97 +10295,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10640,7 +10637,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2">
         <v>750956610</v>
@@ -10649,7 +10646,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -10658,10 +10655,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -10751,7 +10748,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -10763,7 +10760,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10810,7 +10807,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3">
         <v>750902516</v>
@@ -10819,7 +10816,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -10828,7 +10825,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H3" s="5">
         <v>243593</v>
@@ -10921,7 +10918,7 @@
         <v>139</v>
       </c>
       <c r="AL3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -10933,7 +10930,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -10980,13 +10977,13 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -11085,7 +11082,7 @@
         <v>138</v>
       </c>
       <c r="AL4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -11094,7 +11091,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -11138,7 +11135,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5">
         <v>750893627</v>
@@ -11147,7 +11144,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -11156,7 +11153,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H5" s="5">
         <v>243410</v>
@@ -11249,13 +11246,13 @@
         <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11290,7 +11287,7 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6">
         <v>750933349</v>
@@ -11299,7 +11296,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -11308,7 +11305,7 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H6" s="5">
         <v>243410</v>
@@ -11401,13 +11398,13 @@
         <v>141</v>
       </c>
       <c r="AL6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX6" t="s">
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11424,7 +11421,7 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7">
         <v>540022759</v>
@@ -11433,7 +11430,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -11442,10 +11439,10 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I7" t="s">
         <v>48</v>
@@ -11535,15 +11532,15 @@
         <v>141</v>
       </c>
       <c r="AL7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8">
         <v>540002759</v>
@@ -11552,7 +11549,7 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -11561,10 +11558,10 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
@@ -11654,21 +11651,21 @@
         <v>141</v>
       </c>
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -11677,7 +11674,7 @@
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I9" t="s">
         <v>48</v>
@@ -11767,21 +11764,21 @@
         <v>141</v>
       </c>
       <c r="AL9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
@@ -11790,7 +11787,7 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I10" t="s">
         <v>48</v>
@@ -11880,85 +11877,85 @@
         <v>141</v>
       </c>
       <c r="AL10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>211</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12029,8 +12026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304A006A-1666-451B-A15B-C8FE3A345783}">
   <dimension ref="A1:BN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12206,12 +12203,12 @@
         <v>36</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2">
         <v>750844249</v>
@@ -12220,7 +12217,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -12229,7 +12226,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="5">
         <v>243441</v>
@@ -12322,7 +12319,7 @@
         <v>139</v>
       </c>
       <c r="AL2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -12334,7 +12331,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -12381,7 +12378,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3">
         <v>750961820</v>
@@ -12390,7 +12387,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -12399,7 +12396,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" s="5">
         <v>243441</v>
@@ -12492,7 +12489,7 @@
         <v>140</v>
       </c>
       <c r="AL3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -12504,7 +12501,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -12551,7 +12548,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B4">
         <v>750418373</v>
@@ -12560,7 +12557,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -12569,10 +12566,10 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
@@ -12662,7 +12659,7 @@
         <v>141</v>
       </c>
       <c r="AL4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -12671,7 +12668,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -12715,7 +12712,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>750516173</v>
@@ -12724,7 +12721,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -12733,10 +12730,10 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
@@ -12826,16 +12823,16 @@
         <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AM5" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -12873,7 +12870,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -12890,97 +12887,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -13209,7 +13206,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2">
         <v>610011556</v>
@@ -13218,7 +13215,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -13227,7 +13224,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="5">
         <v>243593</v>
@@ -13308,7 +13305,7 @@
         <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -13320,7 +13317,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -13358,7 +13355,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3">
         <v>750722644</v>
@@ -13367,7 +13364,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -13376,10 +13373,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -13457,7 +13454,7 @@
         <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -13469,7 +13466,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -13507,13 +13504,13 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -13600,7 +13597,7 @@
         <v>138</v>
       </c>
       <c r="AH4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="s">
         <v>40</v>
@@ -13609,7 +13606,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -13644,7 +13641,7 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B5">
         <v>750430676</v>
@@ -13653,7 +13650,7 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -13662,10 +13659,10 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I5" t="s">
         <v>50</v>
@@ -13743,13 +13740,13 @@
         <v>137</v>
       </c>
       <c r="AH5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO5" t="s">
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -13781,7 +13778,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -13795,97 +13792,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -14104,7 +14101,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2">
         <v>750671692</v>
@@ -14113,7 +14110,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -14122,10 +14119,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -14203,7 +14200,7 @@
         <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -14215,7 +14212,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -14253,7 +14250,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B3">
         <v>580003359</v>
@@ -14262,7 +14259,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -14271,10 +14268,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -14352,7 +14349,7 @@
         <v>139</v>
       </c>
       <c r="AH3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -14364,7 +14361,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -14402,7 +14399,7 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4">
         <v>680015190</v>
@@ -14411,7 +14408,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -14420,7 +14417,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="5">
         <v>243594</v>
@@ -14501,7 +14498,7 @@
         <v>137</v>
       </c>
       <c r="AH4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN4" t="s">
         <v>40</v>
@@ -14510,7 +14507,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -14548,7 +14545,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -14580,7 +14577,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -14594,97 +14591,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -14932,7 +14929,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -14988,7 +14985,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -15041,7 +15038,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -15088,7 +15085,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -15123,7 +15120,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -15137,97 +15134,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
